--- a/src/test/resources/pistesyotto/7/muplattu.xlsx
+++ b/src/test/resources/pistesyotto/7/muplattu.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25203"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25317"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
     <workbookView xWindow="640" yWindow="600" windowWidth="27500" windowHeight="14000"/>
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Pistesyöttö" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -4060,10 +4060,26 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -4091,8 +4107,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -4115,7 +4141,17 @@
       <protection hidden="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="11">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -4418,7 +4454,7 @@
   <dimension ref="A1:G450"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="F5" sqref="F5:G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -4465,17 +4501,17 @@
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
     </row>
-    <row r="5" spans="1:7" s="1" customFormat="1" hidden="1">
+    <row r="5" spans="1:7" s="1" customFormat="1" ht="22" customHeight="1">
       <c r="A5"/>
       <c r="B5"/>
-      <c r="C5" s="5" t="s">
+      <c r="D5" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="7"/>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="7"/>
+      <c r="F5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
     </row>
     <row r="6" spans="1:7">
       <c r="D6" s="5" t="s">
@@ -13560,3955 +13596,24 @@
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="B3:E3"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F5:G5"/>
   </mergeCells>
-  <dataValidations count="1019">
-    <dataValidation type="decimal" allowBlank="1" sqref="D8">
+  <dataValidations count="3">
+    <dataValidation type="decimal" allowBlank="1" sqref="D8:D450">
       <formula1>0</formula1>
       <formula2>61</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E8:E450">
+    <dataValidation type="list" allowBlank="1" sqref="E8:E450 G8:G450">
       <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F8">
-      <formula1>0</formula1>
-      <formula2>60</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G8">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="D9">
-      <formula1>0</formula1>
-      <formula2>61</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F9">
-      <formula1>0</formula1>
-      <formula2>60</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G9">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="D10">
-      <formula1>0</formula1>
-      <formula2>61</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F10">
-      <formula1>0</formula1>
-      <formula2>60</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G10">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="D11">
-      <formula1>0</formula1>
-      <formula2>61</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F11">
-      <formula1>0</formula1>
-      <formula2>60</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G11:G18 G21:G27 G30:G33 G35 G38:G41 G43 G45 G47 G50:G52 G55:G60 G62:G66 G68:G70 G73:G77 G79 G81:G85 G87 G91:G95 G97:G109 G112:G117 G119 G121:G125 G127:G130 G136:G137 G140:G144 G146 G148 G151:G154 G156:G162 G165:G166 G168 G170:G172 G176 G178 G181:G184 G186:G191 G194:G196 G198:G199 G202 G204:G205 G208:G220 G222:G225 G227:G229 G231:G237 G239:G240 G243:G244 G246 G250:G251 G253 G255 G257:G258 G260 G267:G268 G270:G273 G275:G277 G279:G282 G284:G288 G291:G300 G302:G303 G306:G307 G309:G312 G314 G316:G320 G322:G328 G330 G332:G335 G337:G339 G341:G343 G345:G347 G349 G354 G357:G363 G365:G368 G373:G375 G377:G381 G383:G388 G390:G391 G394:G402 G404:G406 G408:G412 G414:G415 G417 G419:G420 G422:G424 G426:G428 G430:G431 G433:G438 G440:G442 G444 G446:G450">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="D12">
-      <formula1>0</formula1>
-      <formula2>61</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F12">
-      <formula1>0</formula1>
-      <formula2>60</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="D13">
-      <formula1>0</formula1>
-      <formula2>61</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F13">
-      <formula1>0</formula1>
-      <formula2>60</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="D14">
-      <formula1>0</formula1>
-      <formula2>61</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F14">
-      <formula1>0</formula1>
-      <formula2>60</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="D15">
-      <formula1>0</formula1>
-      <formula2>61</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F15">
-      <formula1>0</formula1>
-      <formula2>60</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="D16">
-      <formula1>0</formula1>
-      <formula2>61</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F16">
-      <formula1>0</formula1>
-      <formula2>60</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="D17">
-      <formula1>0</formula1>
-      <formula2>61</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F17">
-      <formula1>0</formula1>
-      <formula2>60</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="D18">
-      <formula1>0</formula1>
-      <formula2>61</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F18">
-      <formula1>0</formula1>
-      <formula2>60</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="D19">
-      <formula1>0</formula1>
-      <formula2>61</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F19">
-      <formula1>0</formula1>
-      <formula2>60</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G19">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="D20">
-      <formula1>0</formula1>
-      <formula2>61</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F20">
-      <formula1>0</formula1>
-      <formula2>60</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G20">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="D21">
-      <formula1>0</formula1>
-      <formula2>61</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F21">
-      <formula1>0</formula1>
-      <formula2>60</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="D22">
-      <formula1>0</formula1>
-      <formula2>61</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F22">
-      <formula1>0</formula1>
-      <formula2>60</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="D23">
-      <formula1>0</formula1>
-      <formula2>61</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F23">
-      <formula1>0</formula1>
-      <formula2>60</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="D24">
-      <formula1>0</formula1>
-      <formula2>61</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F24">
-      <formula1>0</formula1>
-      <formula2>60</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="D25">
-      <formula1>0</formula1>
-      <formula2>61</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F25">
-      <formula1>0</formula1>
-      <formula2>60</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="D26">
-      <formula1>0</formula1>
-      <formula2>61</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F26">
-      <formula1>0</formula1>
-      <formula2>60</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="D27">
-      <formula1>0</formula1>
-      <formula2>61</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F27">
-      <formula1>0</formula1>
-      <formula2>60</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="D28">
-      <formula1>0</formula1>
-      <formula2>61</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F28">
-      <formula1>0</formula1>
-      <formula2>60</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G28">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="D29">
-      <formula1>0</formula1>
-      <formula2>61</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F29">
-      <formula1>0</formula1>
-      <formula2>60</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G29">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="D30">
-      <formula1>0</formula1>
-      <formula2>61</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F30">
-      <formula1>0</formula1>
-      <formula2>60</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="D31">
-      <formula1>0</formula1>
-      <formula2>61</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F31">
-      <formula1>0</formula1>
-      <formula2>60</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="D32">
-      <formula1>0</formula1>
-      <formula2>61</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F32">
-      <formula1>0</formula1>
-      <formula2>60</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="D33">
-      <formula1>0</formula1>
-      <formula2>61</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F33">
-      <formula1>0</formula1>
-      <formula2>60</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="D34">
-      <formula1>0</formula1>
-      <formula2>61</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F34">
-      <formula1>0</formula1>
-      <formula2>60</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G34">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="D35">
-      <formula1>0</formula1>
-      <formula2>61</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F35">
-      <formula1>0</formula1>
-      <formula2>60</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="D36">
-      <formula1>0</formula1>
-      <formula2>61</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F36">
-      <formula1>0</formula1>
-      <formula2>60</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G36">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="D37">
-      <formula1>0</formula1>
-      <formula2>61</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F37">
-      <formula1>0</formula1>
-      <formula2>60</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G37">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="D38">
-      <formula1>0</formula1>
-      <formula2>61</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F38">
-      <formula1>0</formula1>
-      <formula2>60</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="D39">
-      <formula1>0</formula1>
-      <formula2>61</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F39">
-      <formula1>0</formula1>
-      <formula2>60</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="D40">
-      <formula1>0</formula1>
-      <formula2>61</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F40">
-      <formula1>0</formula1>
-      <formula2>60</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="D41">
-      <formula1>0</formula1>
-      <formula2>61</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F41">
-      <formula1>0</formula1>
-      <formula2>60</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="D42">
-      <formula1>0</formula1>
-      <formula2>61</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F42">
-      <formula1>0</formula1>
-      <formula2>60</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G42">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="D43">
-      <formula1>0</formula1>
-      <formula2>61</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F43">
-      <formula1>0</formula1>
-      <formula2>60</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="D44">
-      <formula1>0</formula1>
-      <formula2>61</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F44">
-      <formula1>0</formula1>
-      <formula2>60</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G44">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="D45">
-      <formula1>0</formula1>
-      <formula2>61</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F45">
-      <formula1>0</formula1>
-      <formula2>60</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="D46">
-      <formula1>0</formula1>
-      <formula2>61</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F46">
-      <formula1>0</formula1>
-      <formula2>60</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G46">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="D47">
-      <formula1>0</formula1>
-      <formula2>61</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F47">
-      <formula1>0</formula1>
-      <formula2>60</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="D48">
-      <formula1>0</formula1>
-      <formula2>61</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F48">
-      <formula1>0</formula1>
-      <formula2>60</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G48">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="D49">
-      <formula1>0</formula1>
-      <formula2>61</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F49">
-      <formula1>0</formula1>
-      <formula2>60</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G49">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="D50">
-      <formula1>0</formula1>
-      <formula2>61</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F50">
-      <formula1>0</formula1>
-      <formula2>60</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="D51">
-      <formula1>0</formula1>
-      <formula2>61</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F51">
-      <formula1>0</formula1>
-      <formula2>60</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="D52">
-      <formula1>0</formula1>
-      <formula2>61</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F52">
-      <formula1>0</formula1>
-      <formula2>60</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="D53">
-      <formula1>0</formula1>
-      <formula2>61</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F53">
-      <formula1>0</formula1>
-      <formula2>60</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G53">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="D54">
-      <formula1>0</formula1>
-      <formula2>61</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F54">
-      <formula1>0</formula1>
-      <formula2>60</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G54">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="D55">
-      <formula1>0</formula1>
-      <formula2>61</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F55">
-      <formula1>0</formula1>
-      <formula2>60</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="D56">
-      <formula1>0</formula1>
-      <formula2>61</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F56">
-      <formula1>0</formula1>
-      <formula2>60</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="D57">
-      <formula1>0</formula1>
-      <formula2>61</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F57">
-      <formula1>0</formula1>
-      <formula2>60</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="D58">
-      <formula1>0</formula1>
-      <formula2>61</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F58">
-      <formula1>0</formula1>
-      <formula2>60</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="D59">
-      <formula1>0</formula1>
-      <formula2>61</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F59">
-      <formula1>0</formula1>
-      <formula2>60</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="D60">
-      <formula1>0</formula1>
-      <formula2>61</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F60">
-      <formula1>0</formula1>
-      <formula2>60</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="D61">
-      <formula1>0</formula1>
-      <formula2>61</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F61">
-      <formula1>0</formula1>
-      <formula2>60</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G61">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="D62">
-      <formula1>0</formula1>
-      <formula2>61</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F62">
-      <formula1>0</formula1>
-      <formula2>60</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="D63">
-      <formula1>0</formula1>
-      <formula2>61</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F63">
-      <formula1>0</formula1>
-      <formula2>60</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="D64">
-      <formula1>0</formula1>
-      <formula2>61</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F64">
-      <formula1>0</formula1>
-      <formula2>60</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="D65">
-      <formula1>0</formula1>
-      <formula2>61</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F65">
-      <formula1>0</formula1>
-      <formula2>60</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="D66">
-      <formula1>0</formula1>
-      <formula2>61</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F66">
-      <formula1>0</formula1>
-      <formula2>60</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="D67">
-      <formula1>0</formula1>
-      <formula2>61</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F67">
-      <formula1>0</formula1>
-      <formula2>60</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G67">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="D68">
-      <formula1>0</formula1>
-      <formula2>61</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F68">
-      <formula1>0</formula1>
-      <formula2>60</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="D69">
-      <formula1>0</formula1>
-      <formula2>61</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F69">
-      <formula1>0</formula1>
-      <formula2>60</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="D70">
-      <formula1>0</formula1>
-      <formula2>61</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F70">
-      <formula1>0</formula1>
-      <formula2>60</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="D71">
-      <formula1>0</formula1>
-      <formula2>61</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F71">
-      <formula1>0</formula1>
-      <formula2>60</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G71">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="D72">
-      <formula1>0</formula1>
-      <formula2>61</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F72">
-      <formula1>0</formula1>
-      <formula2>60</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G72">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="D73">
-      <formula1>0</formula1>
-      <formula2>61</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F73">
-      <formula1>0</formula1>
-      <formula2>60</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="D74">
-      <formula1>0</formula1>
-      <formula2>61</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F74">
-      <formula1>0</formula1>
-      <formula2>60</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="D75">
-      <formula1>0</formula1>
-      <formula2>61</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F75">
-      <formula1>0</formula1>
-      <formula2>60</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="D76">
-      <formula1>0</formula1>
-      <formula2>61</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F76">
-      <formula1>0</formula1>
-      <formula2>60</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="D77">
-      <formula1>0</formula1>
-      <formula2>61</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F77">
-      <formula1>0</formula1>
-      <formula2>60</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="D78">
-      <formula1>0</formula1>
-      <formula2>61</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F78">
-      <formula1>0</formula1>
-      <formula2>60</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G78">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="D79">
-      <formula1>0</formula1>
-      <formula2>61</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F79">
-      <formula1>0</formula1>
-      <formula2>60</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="D80">
-      <formula1>0</formula1>
-      <formula2>61</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F80">
-      <formula1>0</formula1>
-      <formula2>60</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G80">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="D81">
-      <formula1>0</formula1>
-      <formula2>61</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F81">
-      <formula1>0</formula1>
-      <formula2>60</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="D82">
-      <formula1>0</formula1>
-      <formula2>61</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F82">
-      <formula1>0</formula1>
-      <formula2>60</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="D83">
-      <formula1>0</formula1>
-      <formula2>61</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F83">
-      <formula1>0</formula1>
-      <formula2>60</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="D84">
-      <formula1>0</formula1>
-      <formula2>61</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F84">
-      <formula1>0</formula1>
-      <formula2>60</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="D85">
-      <formula1>0</formula1>
-      <formula2>61</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F85">
-      <formula1>0</formula1>
-      <formula2>60</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="D86">
-      <formula1>0</formula1>
-      <formula2>61</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F86">
-      <formula1>0</formula1>
-      <formula2>60</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G86">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="D87">
-      <formula1>0</formula1>
-      <formula2>61</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F87">
-      <formula1>0</formula1>
-      <formula2>60</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="D88">
-      <formula1>0</formula1>
-      <formula2>61</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F88">
-      <formula1>0</formula1>
-      <formula2>60</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G88">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="D89">
-      <formula1>0</formula1>
-      <formula2>61</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F89">
-      <formula1>0</formula1>
-      <formula2>60</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G89">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="D90">
-      <formula1>0</formula1>
-      <formula2>61</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F90">
-      <formula1>0</formula1>
-      <formula2>60</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G90">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="D91">
-      <formula1>0</formula1>
-      <formula2>61</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F91">
-      <formula1>0</formula1>
-      <formula2>60</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="D92">
-      <formula1>0</formula1>
-      <formula2>61</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F92">
-      <formula1>0</formula1>
-      <formula2>60</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="D93">
-      <formula1>0</formula1>
-      <formula2>61</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F93">
-      <formula1>0</formula1>
-      <formula2>60</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="D94">
-      <formula1>0</formula1>
-      <formula2>61</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F94">
-      <formula1>0</formula1>
-      <formula2>60</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="D95">
-      <formula1>0</formula1>
-      <formula2>61</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F95">
-      <formula1>0</formula1>
-      <formula2>60</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="D96">
-      <formula1>0</formula1>
-      <formula2>61</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F96">
-      <formula1>0</formula1>
-      <formula2>60</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G96">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="D97">
-      <formula1>0</formula1>
-      <formula2>61</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F97">
-      <formula1>0</formula1>
-      <formula2>60</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="D98">
-      <formula1>0</formula1>
-      <formula2>61</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F98">
-      <formula1>0</formula1>
-      <formula2>60</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="D99">
-      <formula1>0</formula1>
-      <formula2>61</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F99">
-      <formula1>0</formula1>
-      <formula2>60</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="D100">
-      <formula1>0</formula1>
-      <formula2>61</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F100">
-      <formula1>0</formula1>
-      <formula2>60</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="D101">
-      <formula1>0</formula1>
-      <formula2>61</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F101">
-      <formula1>0</formula1>
-      <formula2>60</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="D102">
-      <formula1>0</formula1>
-      <formula2>61</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F102">
-      <formula1>0</formula1>
-      <formula2>60</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="D103">
-      <formula1>0</formula1>
-      <formula2>61</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F103">
-      <formula1>0</formula1>
-      <formula2>60</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="D104">
-      <formula1>0</formula1>
-      <formula2>61</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F104">
-      <formula1>0</formula1>
-      <formula2>60</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="D105">
-      <formula1>0</formula1>
-      <formula2>61</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F105">
-      <formula1>0</formula1>
-      <formula2>60</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="D106">
-      <formula1>0</formula1>
-      <formula2>61</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F106">
-      <formula1>0</formula1>
-      <formula2>60</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="D107">
-      <formula1>0</formula1>
-      <formula2>61</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F107">
-      <formula1>0</formula1>
-      <formula2>60</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="D108">
-      <formula1>0</formula1>
-      <formula2>61</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F108">
-      <formula1>0</formula1>
-      <formula2>60</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="D109">
-      <formula1>0</formula1>
-      <formula2>61</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F109">
-      <formula1>0</formula1>
-      <formula2>60</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="D110">
-      <formula1>0</formula1>
-      <formula2>61</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F110">
-      <formula1>0</formula1>
-      <formula2>60</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G110">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="D111">
-      <formula1>0</formula1>
-      <formula2>61</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F111">
-      <formula1>0</formula1>
-      <formula2>60</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G111">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="D112">
-      <formula1>0</formula1>
-      <formula2>61</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F112">
-      <formula1>0</formula1>
-      <formula2>60</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="D113">
-      <formula1>0</formula1>
-      <formula2>61</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F113">
-      <formula1>0</formula1>
-      <formula2>60</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="D114">
-      <formula1>0</formula1>
-      <formula2>61</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F114">
-      <formula1>0</formula1>
-      <formula2>60</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="D115">
-      <formula1>0</formula1>
-      <formula2>61</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F115">
-      <formula1>0</formula1>
-      <formula2>60</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="D116">
-      <formula1>0</formula1>
-      <formula2>61</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F116">
-      <formula1>0</formula1>
-      <formula2>60</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="D117">
-      <formula1>0</formula1>
-      <formula2>61</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F117">
-      <formula1>0</formula1>
-      <formula2>60</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="D118">
-      <formula1>0</formula1>
-      <formula2>61</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F118">
-      <formula1>0</formula1>
-      <formula2>60</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G118">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="D119">
-      <formula1>0</formula1>
-      <formula2>61</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F119">
-      <formula1>0</formula1>
-      <formula2>60</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="D120">
-      <formula1>0</formula1>
-      <formula2>61</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F120">
-      <formula1>0</formula1>
-      <formula2>60</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G120">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="D121">
-      <formula1>0</formula1>
-      <formula2>61</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F121">
-      <formula1>0</formula1>
-      <formula2>60</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="D122">
-      <formula1>0</formula1>
-      <formula2>61</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F122">
-      <formula1>0</formula1>
-      <formula2>60</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="D123">
-      <formula1>0</formula1>
-      <formula2>61</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F123">
-      <formula1>0</formula1>
-      <formula2>60</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="D124">
-      <formula1>0</formula1>
-      <formula2>61</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F124">
-      <formula1>0</formula1>
-      <formula2>60</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="D125">
-      <formula1>0</formula1>
-      <formula2>61</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F125">
-      <formula1>0</formula1>
-      <formula2>60</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="D126">
-      <formula1>0</formula1>
-      <formula2>61</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F126">
-      <formula1>0</formula1>
-      <formula2>60</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G126">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="D127">
-      <formula1>0</formula1>
-      <formula2>61</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F127">
-      <formula1>0</formula1>
-      <formula2>60</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="D128">
-      <formula1>0</formula1>
-      <formula2>61</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F128">
-      <formula1>0</formula1>
-      <formula2>60</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="D129">
-      <formula1>0</formula1>
-      <formula2>61</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F129">
-      <formula1>0</formula1>
-      <formula2>60</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="D130">
-      <formula1>0</formula1>
-      <formula2>61</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F130">
-      <formula1>0</formula1>
-      <formula2>60</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="D131">
-      <formula1>0</formula1>
-      <formula2>61</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F131">
-      <formula1>0</formula1>
-      <formula2>60</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G131">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="D132">
-      <formula1>0</formula1>
-      <formula2>61</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F132">
-      <formula1>0</formula1>
-      <formula2>60</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G132">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="D133">
-      <formula1>0</formula1>
-      <formula2>61</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F133">
-      <formula1>0</formula1>
-      <formula2>60</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G133">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="D134">
-      <formula1>0</formula1>
-      <formula2>61</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F134">
-      <formula1>0</formula1>
-      <formula2>60</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G134">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="D135">
-      <formula1>0</formula1>
-      <formula2>61</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F135">
-      <formula1>0</formula1>
-      <formula2>60</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G135">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="D136">
-      <formula1>0</formula1>
-      <formula2>61</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F136">
-      <formula1>0</formula1>
-      <formula2>60</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="D137">
-      <formula1>0</formula1>
-      <formula2>61</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F137">
-      <formula1>0</formula1>
-      <formula2>60</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="D138">
-      <formula1>0</formula1>
-      <formula2>61</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F138">
-      <formula1>0</formula1>
-      <formula2>60</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G138">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="D139">
-      <formula1>0</formula1>
-      <formula2>61</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F139">
-      <formula1>0</formula1>
-      <formula2>60</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G139">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="D140">
-      <formula1>0</formula1>
-      <formula2>61</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F140">
-      <formula1>0</formula1>
-      <formula2>60</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="D141">
-      <formula1>0</formula1>
-      <formula2>61</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F141">
-      <formula1>0</formula1>
-      <formula2>60</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="D142">
-      <formula1>0</formula1>
-      <formula2>61</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F142">
-      <formula1>0</formula1>
-      <formula2>60</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="D143">
-      <formula1>0</formula1>
-      <formula2>61</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F143">
-      <formula1>0</formula1>
-      <formula2>60</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="D144">
-      <formula1>0</formula1>
-      <formula2>61</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F144">
-      <formula1>0</formula1>
-      <formula2>60</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="D145">
-      <formula1>0</formula1>
-      <formula2>61</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F145">
-      <formula1>0</formula1>
-      <formula2>60</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G145">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="D146">
-      <formula1>0</formula1>
-      <formula2>61</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F146">
-      <formula1>0</formula1>
-      <formula2>60</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="D147">
-      <formula1>0</formula1>
-      <formula2>61</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F147">
-      <formula1>0</formula1>
-      <formula2>60</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G147">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="D148">
-      <formula1>0</formula1>
-      <formula2>61</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F148">
-      <formula1>0</formula1>
-      <formula2>60</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="D149">
-      <formula1>0</formula1>
-      <formula2>61</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F149">
-      <formula1>0</formula1>
-      <formula2>60</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G149">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="D150">
-      <formula1>0</formula1>
-      <formula2>61</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F150">
-      <formula1>0</formula1>
-      <formula2>60</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G150">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="D151">
-      <formula1>0</formula1>
-      <formula2>61</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F151">
-      <formula1>0</formula1>
-      <formula2>60</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="D152">
-      <formula1>0</formula1>
-      <formula2>61</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F152">
-      <formula1>0</formula1>
-      <formula2>60</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="D153">
-      <formula1>0</formula1>
-      <formula2>61</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F153">
-      <formula1>0</formula1>
-      <formula2>60</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="D154">
-      <formula1>0</formula1>
-      <formula2>61</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F154">
-      <formula1>0</formula1>
-      <formula2>60</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="D155">
-      <formula1>0</formula1>
-      <formula2>61</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F155">
-      <formula1>0</formula1>
-      <formula2>60</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G155">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="D156">
-      <formula1>0</formula1>
-      <formula2>61</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F156">
-      <formula1>0</formula1>
-      <formula2>60</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="D157">
-      <formula1>0</formula1>
-      <formula2>61</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F157">
-      <formula1>0</formula1>
-      <formula2>60</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="D158">
-      <formula1>0</formula1>
-      <formula2>61</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F158">
-      <formula1>0</formula1>
-      <formula2>60</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="D159">
-      <formula1>0</formula1>
-      <formula2>61</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F159">
-      <formula1>0</formula1>
-      <formula2>60</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="D160">
-      <formula1>0</formula1>
-      <formula2>61</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F160">
-      <formula1>0</formula1>
-      <formula2>60</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="D161">
-      <formula1>0</formula1>
-      <formula2>61</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F161">
-      <formula1>0</formula1>
-      <formula2>60</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="D162">
-      <formula1>0</formula1>
-      <formula2>61</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F162">
-      <formula1>0</formula1>
-      <formula2>60</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="D163">
-      <formula1>0</formula1>
-      <formula2>61</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F163">
-      <formula1>0</formula1>
-      <formula2>60</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G163">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="D164">
-      <formula1>0</formula1>
-      <formula2>61</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F164">
-      <formula1>0</formula1>
-      <formula2>60</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G164">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="D165">
-      <formula1>0</formula1>
-      <formula2>61</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F165">
-      <formula1>0</formula1>
-      <formula2>60</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="D166">
-      <formula1>0</formula1>
-      <formula2>61</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F166">
-      <formula1>0</formula1>
-      <formula2>60</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="D167">
-      <formula1>0</formula1>
-      <formula2>61</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F167">
-      <formula1>0</formula1>
-      <formula2>60</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G167">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="D168">
-      <formula1>0</formula1>
-      <formula2>61</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F168">
-      <formula1>0</formula1>
-      <formula2>60</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="D169">
-      <formula1>0</formula1>
-      <formula2>61</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F169">
-      <formula1>0</formula1>
-      <formula2>60</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G169">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="D170">
-      <formula1>0</formula1>
-      <formula2>61</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F170">
-      <formula1>0</formula1>
-      <formula2>60</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="D171">
-      <formula1>0</formula1>
-      <formula2>61</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F171">
-      <formula1>0</formula1>
-      <formula2>60</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="D172">
-      <formula1>0</formula1>
-      <formula2>61</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F172">
-      <formula1>0</formula1>
-      <formula2>60</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="D173">
-      <formula1>0</formula1>
-      <formula2>61</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F173">
-      <formula1>0</formula1>
-      <formula2>60</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G173">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="D174">
-      <formula1>0</formula1>
-      <formula2>61</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F174">
-      <formula1>0</formula1>
-      <formula2>60</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G174">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="D175">
-      <formula1>0</formula1>
-      <formula2>61</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F175">
-      <formula1>0</formula1>
-      <formula2>60</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G175">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="D176">
-      <formula1>0</formula1>
-      <formula2>61</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F176">
-      <formula1>0</formula1>
-      <formula2>60</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="D177">
-      <formula1>0</formula1>
-      <formula2>61</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F177">
-      <formula1>0</formula1>
-      <formula2>60</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G177">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="D178">
-      <formula1>0</formula1>
-      <formula2>61</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F178">
-      <formula1>0</formula1>
-      <formula2>60</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="D179">
-      <formula1>0</formula1>
-      <formula2>61</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F179">
-      <formula1>0</formula1>
-      <formula2>60</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G179">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="D180">
-      <formula1>0</formula1>
-      <formula2>61</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F180">
-      <formula1>0</formula1>
-      <formula2>60</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G180">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="D181">
-      <formula1>0</formula1>
-      <formula2>61</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F181">
-      <formula1>0</formula1>
-      <formula2>60</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="D182">
-      <formula1>0</formula1>
-      <formula2>61</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F182">
-      <formula1>0</formula1>
-      <formula2>60</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="D183">
-      <formula1>0</formula1>
-      <formula2>61</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F183">
-      <formula1>0</formula1>
-      <formula2>60</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="D184">
-      <formula1>0</formula1>
-      <formula2>61</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F184">
-      <formula1>0</formula1>
-      <formula2>60</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="D185">
-      <formula1>0</formula1>
-      <formula2>61</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F185">
-      <formula1>0</formula1>
-      <formula2>60</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G185">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="D186">
-      <formula1>0</formula1>
-      <formula2>61</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F186">
-      <formula1>0</formula1>
-      <formula2>60</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="D187">
-      <formula1>0</formula1>
-      <formula2>61</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F187">
-      <formula1>0</formula1>
-      <formula2>60</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="D188">
-      <formula1>0</formula1>
-      <formula2>61</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F188">
-      <formula1>0</formula1>
-      <formula2>60</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="D189">
-      <formula1>0</formula1>
-      <formula2>61</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F189">
-      <formula1>0</formula1>
-      <formula2>60</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="D190">
-      <formula1>0</formula1>
-      <formula2>61</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F190">
-      <formula1>0</formula1>
-      <formula2>60</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="D191">
-      <formula1>0</formula1>
-      <formula2>61</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F191">
-      <formula1>0</formula1>
-      <formula2>60</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="D192">
-      <formula1>0</formula1>
-      <formula2>61</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F192">
-      <formula1>0</formula1>
-      <formula2>60</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G192">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="D193">
-      <formula1>0</formula1>
-      <formula2>61</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F193">
-      <formula1>0</formula1>
-      <formula2>60</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G193">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="D194">
-      <formula1>0</formula1>
-      <formula2>61</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F194">
-      <formula1>0</formula1>
-      <formula2>60</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="D195">
-      <formula1>0</formula1>
-      <formula2>61</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F195">
-      <formula1>0</formula1>
-      <formula2>60</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="D196">
-      <formula1>0</formula1>
-      <formula2>61</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F196">
-      <formula1>0</formula1>
-      <formula2>60</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="D197">
-      <formula1>0</formula1>
-      <formula2>61</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F197">
-      <formula1>0</formula1>
-      <formula2>60</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G197">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="D198">
-      <formula1>0</formula1>
-      <formula2>61</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F198">
-      <formula1>0</formula1>
-      <formula2>60</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="D199">
-      <formula1>0</formula1>
-      <formula2>61</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F199">
-      <formula1>0</formula1>
-      <formula2>60</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="D200">
-      <formula1>0</formula1>
-      <formula2>61</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F200">
-      <formula1>0</formula1>
-      <formula2>60</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G200">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="D201">
-      <formula1>0</formula1>
-      <formula2>61</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F201">
-      <formula1>0</formula1>
-      <formula2>60</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G201">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="D202">
-      <formula1>0</formula1>
-      <formula2>61</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F202">
-      <formula1>0</formula1>
-      <formula2>60</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="D203">
-      <formula1>0</formula1>
-      <formula2>61</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F203">
-      <formula1>0</formula1>
-      <formula2>60</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G203">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="D204">
-      <formula1>0</formula1>
-      <formula2>61</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F204">
-      <formula1>0</formula1>
-      <formula2>60</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="D205">
-      <formula1>0</formula1>
-      <formula2>61</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F205">
-      <formula1>0</formula1>
-      <formula2>60</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="D206">
-      <formula1>0</formula1>
-      <formula2>61</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F206">
-      <formula1>0</formula1>
-      <formula2>60</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G206">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="D207">
-      <formula1>0</formula1>
-      <formula2>61</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F207">
-      <formula1>0</formula1>
-      <formula2>60</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G207">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="D208">
-      <formula1>0</formula1>
-      <formula2>61</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F208">
-      <formula1>0</formula1>
-      <formula2>60</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="D209">
-      <formula1>0</formula1>
-      <formula2>61</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F209">
-      <formula1>0</formula1>
-      <formula2>60</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="D210">
-      <formula1>0</formula1>
-      <formula2>61</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F210">
-      <formula1>0</formula1>
-      <formula2>60</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="D211">
-      <formula1>0</formula1>
-      <formula2>61</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F211">
-      <formula1>0</formula1>
-      <formula2>60</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="D212">
-      <formula1>0</formula1>
-      <formula2>61</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F212">
-      <formula1>0</formula1>
-      <formula2>60</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="D213">
-      <formula1>0</formula1>
-      <formula2>61</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F213">
-      <formula1>0</formula1>
-      <formula2>60</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="D214">
-      <formula1>0</formula1>
-      <formula2>61</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F214">
-      <formula1>0</formula1>
-      <formula2>60</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="D215">
-      <formula1>0</formula1>
-      <formula2>61</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F215">
-      <formula1>0</formula1>
-      <formula2>60</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="D216">
-      <formula1>0</formula1>
-      <formula2>61</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F216">
-      <formula1>0</formula1>
-      <formula2>60</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="D217">
-      <formula1>0</formula1>
-      <formula2>61</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F217">
-      <formula1>0</formula1>
-      <formula2>60</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="D218">
-      <formula1>0</formula1>
-      <formula2>61</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F218">
-      <formula1>0</formula1>
-      <formula2>60</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="D219">
-      <formula1>0</formula1>
-      <formula2>61</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F219">
-      <formula1>0</formula1>
-      <formula2>60</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="D220">
-      <formula1>0</formula1>
-      <formula2>61</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F220">
-      <formula1>0</formula1>
-      <formula2>60</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="D221">
-      <formula1>0</formula1>
-      <formula2>61</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F221">
-      <formula1>0</formula1>
-      <formula2>60</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G221">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="D222">
-      <formula1>0</formula1>
-      <formula2>61</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F222">
-      <formula1>0</formula1>
-      <formula2>60</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="D223">
-      <formula1>0</formula1>
-      <formula2>61</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F223">
-      <formula1>0</formula1>
-      <formula2>60</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="D224">
-      <formula1>0</formula1>
-      <formula2>61</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F224">
-      <formula1>0</formula1>
-      <formula2>60</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="D225">
-      <formula1>0</formula1>
-      <formula2>61</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F225">
-      <formula1>0</formula1>
-      <formula2>60</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="D226">
-      <formula1>0</formula1>
-      <formula2>61</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F226">
-      <formula1>0</formula1>
-      <formula2>60</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G226">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="D227">
-      <formula1>0</formula1>
-      <formula2>61</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F227">
-      <formula1>0</formula1>
-      <formula2>60</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="D228">
-      <formula1>0</formula1>
-      <formula2>61</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F228">
-      <formula1>0</formula1>
-      <formula2>60</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="D229">
-      <formula1>0</formula1>
-      <formula2>61</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F229">
-      <formula1>0</formula1>
-      <formula2>60</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="D230">
-      <formula1>0</formula1>
-      <formula2>61</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F230">
-      <formula1>0</formula1>
-      <formula2>60</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G230">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="D231">
-      <formula1>0</formula1>
-      <formula2>61</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F231">
-      <formula1>0</formula1>
-      <formula2>60</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="D232">
-      <formula1>0</formula1>
-      <formula2>61</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F232">
-      <formula1>0</formula1>
-      <formula2>60</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="D233">
-      <formula1>0</formula1>
-      <formula2>61</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F233">
-      <formula1>0</formula1>
-      <formula2>60</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="D234">
-      <formula1>0</formula1>
-      <formula2>61</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F234">
-      <formula1>0</formula1>
-      <formula2>60</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="D235">
-      <formula1>0</formula1>
-      <formula2>61</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F235">
-      <formula1>0</formula1>
-      <formula2>60</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="D236">
-      <formula1>0</formula1>
-      <formula2>61</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F236">
-      <formula1>0</formula1>
-      <formula2>60</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="D237">
-      <formula1>0</formula1>
-      <formula2>61</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F237">
-      <formula1>0</formula1>
-      <formula2>60</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="D238">
-      <formula1>0</formula1>
-      <formula2>61</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F238">
-      <formula1>0</formula1>
-      <formula2>60</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G238">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="D239">
-      <formula1>0</formula1>
-      <formula2>61</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F239">
-      <formula1>0</formula1>
-      <formula2>60</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="D240">
-      <formula1>0</formula1>
-      <formula2>61</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F240">
-      <formula1>0</formula1>
-      <formula2>60</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="D241">
-      <formula1>0</formula1>
-      <formula2>61</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F241">
-      <formula1>0</formula1>
-      <formula2>60</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G241">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="D242">
-      <formula1>0</formula1>
-      <formula2>61</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F242">
-      <formula1>0</formula1>
-      <formula2>60</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G242">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="D243">
-      <formula1>0</formula1>
-      <formula2>61</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F243">
-      <formula1>0</formula1>
-      <formula2>60</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="D244">
-      <formula1>0</formula1>
-      <formula2>61</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F244">
-      <formula1>0</formula1>
-      <formula2>60</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="D245">
-      <formula1>0</formula1>
-      <formula2>61</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F245">
-      <formula1>0</formula1>
-      <formula2>60</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G245">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="D246">
-      <formula1>0</formula1>
-      <formula2>61</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F246">
-      <formula1>0</formula1>
-      <formula2>60</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="D247">
-      <formula1>0</formula1>
-      <formula2>61</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F247">
-      <formula1>0</formula1>
-      <formula2>60</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G247">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="D248">
-      <formula1>0</formula1>
-      <formula2>61</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F248">
-      <formula1>0</formula1>
-      <formula2>60</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G248">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="D249">
-      <formula1>0</formula1>
-      <formula2>61</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F249">
-      <formula1>0</formula1>
-      <formula2>60</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G249">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="D250">
-      <formula1>0</formula1>
-      <formula2>61</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F250">
-      <formula1>0</formula1>
-      <formula2>60</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="D251">
-      <formula1>0</formula1>
-      <formula2>61</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F251">
-      <formula1>0</formula1>
-      <formula2>60</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="D252">
-      <formula1>0</formula1>
-      <formula2>61</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F252">
-      <formula1>0</formula1>
-      <formula2>60</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G252">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="D253">
-      <formula1>0</formula1>
-      <formula2>61</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F253">
-      <formula1>0</formula1>
-      <formula2>60</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="D254">
-      <formula1>0</formula1>
-      <formula2>61</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F254">
-      <formula1>0</formula1>
-      <formula2>60</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G254">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="D255">
-      <formula1>0</formula1>
-      <formula2>61</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F255">
-      <formula1>0</formula1>
-      <formula2>60</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="D256">
-      <formula1>0</formula1>
-      <formula2>61</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F256">
-      <formula1>0</formula1>
-      <formula2>60</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G256">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="D257">
-      <formula1>0</formula1>
-      <formula2>61</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F257">
-      <formula1>0</formula1>
-      <formula2>60</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="D258">
-      <formula1>0</formula1>
-      <formula2>61</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F258">
-      <formula1>0</formula1>
-      <formula2>60</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="D259">
-      <formula1>0</formula1>
-      <formula2>61</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F259">
-      <formula1>0</formula1>
-      <formula2>60</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G259">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="D260">
-      <formula1>0</formula1>
-      <formula2>61</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F260">
-      <formula1>0</formula1>
-      <formula2>60</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="D261">
-      <formula1>0</formula1>
-      <formula2>61</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F261">
-      <formula1>0</formula1>
-      <formula2>60</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G261">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="D262">
-      <formula1>0</formula1>
-      <formula2>61</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F262">
-      <formula1>0</formula1>
-      <formula2>60</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G262">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="D263">
-      <formula1>0</formula1>
-      <formula2>61</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F263">
-      <formula1>0</formula1>
-      <formula2>60</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G263">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="D264">
-      <formula1>0</formula1>
-      <formula2>61</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F264">
-      <formula1>0</formula1>
-      <formula2>60</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G264">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="D265">
-      <formula1>0</formula1>
-      <formula2>61</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F265">
-      <formula1>0</formula1>
-      <formula2>60</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G265">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="D266">
-      <formula1>0</formula1>
-      <formula2>61</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F266">
-      <formula1>0</formula1>
-      <formula2>60</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G266">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="D267">
-      <formula1>0</formula1>
-      <formula2>61</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F267">
-      <formula1>0</formula1>
-      <formula2>60</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="D268">
-      <formula1>0</formula1>
-      <formula2>61</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F268">
-      <formula1>0</formula1>
-      <formula2>60</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="D269">
-      <formula1>0</formula1>
-      <formula2>61</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F269">
-      <formula1>0</formula1>
-      <formula2>60</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G269">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="D270">
-      <formula1>0</formula1>
-      <formula2>61</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F270">
-      <formula1>0</formula1>
-      <formula2>60</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="D271">
-      <formula1>0</formula1>
-      <formula2>61</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F271">
-      <formula1>0</formula1>
-      <formula2>60</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="D272">
-      <formula1>0</formula1>
-      <formula2>61</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F272">
-      <formula1>0</formula1>
-      <formula2>60</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="D273">
-      <formula1>0</formula1>
-      <formula2>61</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F273">
-      <formula1>0</formula1>
-      <formula2>60</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="D274">
-      <formula1>0</formula1>
-      <formula2>61</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F274">
-      <formula1>0</formula1>
-      <formula2>60</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G274">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="D275">
-      <formula1>0</formula1>
-      <formula2>61</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F275">
-      <formula1>0</formula1>
-      <formula2>60</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="D276">
-      <formula1>0</formula1>
-      <formula2>61</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F276">
-      <formula1>0</formula1>
-      <formula2>60</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="D277">
-      <formula1>0</formula1>
-      <formula2>61</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F277">
-      <formula1>0</formula1>
-      <formula2>60</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="D278">
-      <formula1>0</formula1>
-      <formula2>61</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F278">
-      <formula1>0</formula1>
-      <formula2>60</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G278">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="D279">
-      <formula1>0</formula1>
-      <formula2>61</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F279">
-      <formula1>0</formula1>
-      <formula2>60</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="D280">
-      <formula1>0</formula1>
-      <formula2>61</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F280">
-      <formula1>0</formula1>
-      <formula2>60</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="D281">
-      <formula1>0</formula1>
-      <formula2>61</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F281">
-      <formula1>0</formula1>
-      <formula2>60</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="D282">
-      <formula1>0</formula1>
-      <formula2>61</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F282">
-      <formula1>0</formula1>
-      <formula2>60</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="D283">
-      <formula1>0</formula1>
-      <formula2>61</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F283">
-      <formula1>0</formula1>
-      <formula2>60</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G283">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="D284">
-      <formula1>0</formula1>
-      <formula2>61</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F284">
-      <formula1>0</formula1>
-      <formula2>60</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="D285">
-      <formula1>0</formula1>
-      <formula2>61</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F285">
-      <formula1>0</formula1>
-      <formula2>60</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="D286">
-      <formula1>0</formula1>
-      <formula2>61</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F286">
-      <formula1>0</formula1>
-      <formula2>60</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="D287">
-      <formula1>0</formula1>
-      <formula2>61</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F287">
-      <formula1>0</formula1>
-      <formula2>60</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="D288">
-      <formula1>0</formula1>
-      <formula2>61</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F288">
-      <formula1>0</formula1>
-      <formula2>60</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="D289">
-      <formula1>0</formula1>
-      <formula2>61</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F289">
-      <formula1>0</formula1>
-      <formula2>60</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G289">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="D290">
-      <formula1>0</formula1>
-      <formula2>61</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F290">
-      <formula1>0</formula1>
-      <formula2>60</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G290">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="D291">
-      <formula1>0</formula1>
-      <formula2>61</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F291">
-      <formula1>0</formula1>
-      <formula2>60</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="D292">
-      <formula1>0</formula1>
-      <formula2>61</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F292">
-      <formula1>0</formula1>
-      <formula2>60</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="D293">
-      <formula1>0</formula1>
-      <formula2>61</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F293">
-      <formula1>0</formula1>
-      <formula2>60</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="D294">
-      <formula1>0</formula1>
-      <formula2>61</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F294">
-      <formula1>0</formula1>
-      <formula2>60</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="D295">
-      <formula1>0</formula1>
-      <formula2>61</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F295">
-      <formula1>0</formula1>
-      <formula2>60</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="D296">
-      <formula1>0</formula1>
-      <formula2>61</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F296">
-      <formula1>0</formula1>
-      <formula2>60</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="D297">
-      <formula1>0</formula1>
-      <formula2>61</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F297">
-      <formula1>0</formula1>
-      <formula2>60</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="D298">
-      <formula1>0</formula1>
-      <formula2>61</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F298">
-      <formula1>0</formula1>
-      <formula2>60</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="D299">
-      <formula1>0</formula1>
-      <formula2>61</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F299">
-      <formula1>0</formula1>
-      <formula2>60</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="D300">
-      <formula1>0</formula1>
-      <formula2>61</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F300">
-      <formula1>0</formula1>
-      <formula2>60</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="D301">
-      <formula1>0</formula1>
-      <formula2>61</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F301">
-      <formula1>0</formula1>
-      <formula2>60</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G301">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="D302">
-      <formula1>0</formula1>
-      <formula2>61</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F302">
-      <formula1>0</formula1>
-      <formula2>60</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="D303">
-      <formula1>0</formula1>
-      <formula2>61</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F303">
-      <formula1>0</formula1>
-      <formula2>60</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="D304">
-      <formula1>0</formula1>
-      <formula2>61</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F304">
-      <formula1>0</formula1>
-      <formula2>60</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G304">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="D305">
-      <formula1>0</formula1>
-      <formula2>61</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F305">
-      <formula1>0</formula1>
-      <formula2>60</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G305">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="D306">
-      <formula1>0</formula1>
-      <formula2>61</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F306">
-      <formula1>0</formula1>
-      <formula2>60</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="D307">
-      <formula1>0</formula1>
-      <formula2>61</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F307">
-      <formula1>0</formula1>
-      <formula2>60</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="D308">
-      <formula1>0</formula1>
-      <formula2>61</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F308">
-      <formula1>0</formula1>
-      <formula2>60</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G308">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="D309">
-      <formula1>0</formula1>
-      <formula2>61</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F309">
-      <formula1>0</formula1>
-      <formula2>60</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="D310">
-      <formula1>0</formula1>
-      <formula2>61</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F310">
-      <formula1>0</formula1>
-      <formula2>60</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="D311">
-      <formula1>0</formula1>
-      <formula2>61</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F311">
-      <formula1>0</formula1>
-      <formula2>60</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="D312">
-      <formula1>0</formula1>
-      <formula2>61</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F312">
-      <formula1>0</formula1>
-      <formula2>60</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="D313">
-      <formula1>0</formula1>
-      <formula2>61</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F313">
-      <formula1>0</formula1>
-      <formula2>60</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G313">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="D314">
-      <formula1>0</formula1>
-      <formula2>61</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F314">
-      <formula1>0</formula1>
-      <formula2>60</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="D315">
-      <formula1>0</formula1>
-      <formula2>61</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F315">
-      <formula1>0</formula1>
-      <formula2>60</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G315">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="D316">
-      <formula1>0</formula1>
-      <formula2>61</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F316">
-      <formula1>0</formula1>
-      <formula2>60</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="D317">
-      <formula1>0</formula1>
-      <formula2>61</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F317">
-      <formula1>0</formula1>
-      <formula2>60</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="D318">
-      <formula1>0</formula1>
-      <formula2>61</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F318">
-      <formula1>0</formula1>
-      <formula2>60</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="D319">
-      <formula1>0</formula1>
-      <formula2>61</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F319">
-      <formula1>0</formula1>
-      <formula2>60</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="D320">
-      <formula1>0</formula1>
-      <formula2>61</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F320">
-      <formula1>0</formula1>
-      <formula2>60</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="D321">
-      <formula1>0</formula1>
-      <formula2>61</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F321">
-      <formula1>0</formula1>
-      <formula2>60</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G321">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="D322">
-      <formula1>0</formula1>
-      <formula2>61</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F322">
-      <formula1>0</formula1>
-      <formula2>60</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="D323">
-      <formula1>0</formula1>
-      <formula2>61</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F323">
-      <formula1>0</formula1>
-      <formula2>60</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="D324">
-      <formula1>0</formula1>
-      <formula2>61</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F324">
-      <formula1>0</formula1>
-      <formula2>60</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="D325">
-      <formula1>0</formula1>
-      <formula2>61</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F325">
-      <formula1>0</formula1>
-      <formula2>60</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="D326">
-      <formula1>0</formula1>
-      <formula2>61</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F326">
-      <formula1>0</formula1>
-      <formula2>60</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="D327">
-      <formula1>0</formula1>
-      <formula2>61</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F327">
-      <formula1>0</formula1>
-      <formula2>60</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="D328">
-      <formula1>0</formula1>
-      <formula2>61</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F328">
-      <formula1>0</formula1>
-      <formula2>60</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="D329">
-      <formula1>0</formula1>
-      <formula2>61</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F329">
-      <formula1>0</formula1>
-      <formula2>60</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G329">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="D330">
-      <formula1>0</formula1>
-      <formula2>61</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F330">
-      <formula1>0</formula1>
-      <formula2>60</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="D331">
-      <formula1>0</formula1>
-      <formula2>61</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F331">
-      <formula1>0</formula1>
-      <formula2>60</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G331">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="D332">
-      <formula1>0</formula1>
-      <formula2>61</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F332">
-      <formula1>0</formula1>
-      <formula2>60</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="D333">
-      <formula1>0</formula1>
-      <formula2>61</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F333">
-      <formula1>0</formula1>
-      <formula2>60</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="D334">
-      <formula1>0</formula1>
-      <formula2>61</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F334">
-      <formula1>0</formula1>
-      <formula2>60</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="D335">
-      <formula1>0</formula1>
-      <formula2>61</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F335">
-      <formula1>0</formula1>
-      <formula2>60</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="D336">
-      <formula1>0</formula1>
-      <formula2>61</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F336">
-      <formula1>0</formula1>
-      <formula2>60</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G336">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="D337">
-      <formula1>0</formula1>
-      <formula2>61</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F337">
-      <formula1>0</formula1>
-      <formula2>60</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="D338">
-      <formula1>0</formula1>
-      <formula2>61</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F338">
-      <formula1>0</formula1>
-      <formula2>60</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="D339">
-      <formula1>0</formula1>
-      <formula2>61</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F339">
-      <formula1>0</formula1>
-      <formula2>60</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="D340">
-      <formula1>0</formula1>
-      <formula2>61</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F340">
-      <formula1>0</formula1>
-      <formula2>60</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G340">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="D341">
-      <formula1>0</formula1>
-      <formula2>61</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F341">
-      <formula1>0</formula1>
-      <formula2>60</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="D342">
-      <formula1>0</formula1>
-      <formula2>61</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F342">
-      <formula1>0</formula1>
-      <formula2>60</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="D343">
-      <formula1>0</formula1>
-      <formula2>61</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F343">
-      <formula1>0</formula1>
-      <formula2>60</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="D344">
-      <formula1>0</formula1>
-      <formula2>61</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F344">
-      <formula1>0</formula1>
-      <formula2>60</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G344">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="D345">
-      <formula1>0</formula1>
-      <formula2>61</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F345">
-      <formula1>0</formula1>
-      <formula2>60</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="D346">
-      <formula1>0</formula1>
-      <formula2>61</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F346">
-      <formula1>0</formula1>
-      <formula2>60</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="D347">
-      <formula1>0</formula1>
-      <formula2>61</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F347">
-      <formula1>0</formula1>
-      <formula2>60</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="D348">
-      <formula1>0</formula1>
-      <formula2>61</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F348">
-      <formula1>0</formula1>
-      <formula2>60</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G348">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="D349">
-      <formula1>0</formula1>
-      <formula2>61</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F349">
-      <formula1>0</formula1>
-      <formula2>60</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="D350">
-      <formula1>0</formula1>
-      <formula2>61</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F350">
-      <formula1>0</formula1>
-      <formula2>60</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G350">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="D351">
-      <formula1>0</formula1>
-      <formula2>61</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F351">
-      <formula1>0</formula1>
-      <formula2>60</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G351">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="D352">
-      <formula1>0</formula1>
-      <formula2>61</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F352">
-      <formula1>0</formula1>
-      <formula2>60</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G352">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="D353">
-      <formula1>0</formula1>
-      <formula2>61</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F353">
-      <formula1>0</formula1>
-      <formula2>60</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G353">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="D354">
-      <formula1>0</formula1>
-      <formula2>61</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F354">
-      <formula1>0</formula1>
-      <formula2>60</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="D355">
-      <formula1>0</formula1>
-      <formula2>61</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F355">
-      <formula1>0</formula1>
-      <formula2>60</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G355">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="D356">
-      <formula1>0</formula1>
-      <formula2>61</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F356">
-      <formula1>0</formula1>
-      <formula2>60</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G356">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="D357">
-      <formula1>0</formula1>
-      <formula2>61</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F357">
-      <formula1>0</formula1>
-      <formula2>60</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="D358">
-      <formula1>0</formula1>
-      <formula2>61</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F358">
-      <formula1>0</formula1>
-      <formula2>60</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="D359">
-      <formula1>0</formula1>
-      <formula2>61</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F359">
-      <formula1>0</formula1>
-      <formula2>60</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="D360">
-      <formula1>0</formula1>
-      <formula2>61</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F360">
-      <formula1>0</formula1>
-      <formula2>60</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="D361">
-      <formula1>0</formula1>
-      <formula2>61</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F361">
-      <formula1>0</formula1>
-      <formula2>60</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="D362">
-      <formula1>0</formula1>
-      <formula2>61</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F362">
-      <formula1>0</formula1>
-      <formula2>60</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="D363">
-      <formula1>0</formula1>
-      <formula2>61</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F363">
-      <formula1>0</formula1>
-      <formula2>60</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="D364">
-      <formula1>0</formula1>
-      <formula2>61</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F364">
-      <formula1>0</formula1>
-      <formula2>60</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G364">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="D365">
-      <formula1>0</formula1>
-      <formula2>61</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F365">
-      <formula1>0</formula1>
-      <formula2>60</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="D366">
-      <formula1>0</formula1>
-      <formula2>61</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F366">
-      <formula1>0</formula1>
-      <formula2>60</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="D367">
-      <formula1>0</formula1>
-      <formula2>61</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F367">
-      <formula1>0</formula1>
-      <formula2>60</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="D368">
-      <formula1>0</formula1>
-      <formula2>61</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F368">
-      <formula1>0</formula1>
-      <formula2>60</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="D369">
-      <formula1>0</formula1>
-      <formula2>61</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F369">
-      <formula1>0</formula1>
-      <formula2>60</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G369">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="D370">
-      <formula1>0</formula1>
-      <formula2>61</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F370">
-      <formula1>0</formula1>
-      <formula2>60</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G370">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="D371">
-      <formula1>0</formula1>
-      <formula2>61</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F371">
-      <formula1>0</formula1>
-      <formula2>60</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G371">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="D372">
-      <formula1>0</formula1>
-      <formula2>61</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F372">
-      <formula1>0</formula1>
-      <formula2>60</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G372">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="D373">
-      <formula1>0</formula1>
-      <formula2>61</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F373">
-      <formula1>0</formula1>
-      <formula2>60</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="D374">
-      <formula1>0</formula1>
-      <formula2>61</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F374">
-      <formula1>0</formula1>
-      <formula2>60</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="D375">
-      <formula1>0</formula1>
-      <formula2>61</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F375">
-      <formula1>0</formula1>
-      <formula2>60</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="D376">
-      <formula1>0</formula1>
-      <formula2>61</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F376">
-      <formula1>0</formula1>
-      <formula2>60</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G376">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="D377">
-      <formula1>0</formula1>
-      <formula2>61</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F377">
-      <formula1>0</formula1>
-      <formula2>60</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="D378">
-      <formula1>0</formula1>
-      <formula2>61</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F378">
-      <formula1>0</formula1>
-      <formula2>60</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="D379">
-      <formula1>0</formula1>
-      <formula2>61</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F379">
-      <formula1>0</formula1>
-      <formula2>60</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="D380">
-      <formula1>0</formula1>
-      <formula2>61</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F380">
-      <formula1>0</formula1>
-      <formula2>60</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="D381">
-      <formula1>0</formula1>
-      <formula2>61</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F381">
-      <formula1>0</formula1>
-      <formula2>60</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="D382">
-      <formula1>0</formula1>
-      <formula2>61</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F382">
-      <formula1>0</formula1>
-      <formula2>60</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G382">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="D383">
-      <formula1>0</formula1>
-      <formula2>61</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F383">
-      <formula1>0</formula1>
-      <formula2>60</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="D384">
-      <formula1>0</formula1>
-      <formula2>61</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F384">
-      <formula1>0</formula1>
-      <formula2>60</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="D385">
-      <formula1>0</formula1>
-      <formula2>61</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F385">
-      <formula1>0</formula1>
-      <formula2>60</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="D386">
-      <formula1>0</formula1>
-      <formula2>61</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F386">
-      <formula1>0</formula1>
-      <formula2>60</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="D387">
-      <formula1>0</formula1>
-      <formula2>61</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F387">
-      <formula1>0</formula1>
-      <formula2>60</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="D388">
-      <formula1>0</formula1>
-      <formula2>61</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F388">
-      <formula1>0</formula1>
-      <formula2>60</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="D389">
-      <formula1>0</formula1>
-      <formula2>61</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F389">
-      <formula1>0</formula1>
-      <formula2>60</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G389">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="D390">
-      <formula1>0</formula1>
-      <formula2>61</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F390">
-      <formula1>0</formula1>
-      <formula2>60</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="D391">
-      <formula1>0</formula1>
-      <formula2>61</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F391">
-      <formula1>0</formula1>
-      <formula2>60</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="D392">
-      <formula1>0</formula1>
-      <formula2>61</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F392">
-      <formula1>0</formula1>
-      <formula2>60</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G392">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="D393">
-      <formula1>0</formula1>
-      <formula2>61</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F393">
-      <formula1>0</formula1>
-      <formula2>60</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G393">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="D394">
-      <formula1>0</formula1>
-      <formula2>61</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F394">
-      <formula1>0</formula1>
-      <formula2>60</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="D395">
-      <formula1>0</formula1>
-      <formula2>61</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F395">
-      <formula1>0</formula1>
-      <formula2>60</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="D396">
-      <formula1>0</formula1>
-      <formula2>61</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F396">
-      <formula1>0</formula1>
-      <formula2>60</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="D397">
-      <formula1>0</formula1>
-      <formula2>61</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F397">
-      <formula1>0</formula1>
-      <formula2>60</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="D398">
-      <formula1>0</formula1>
-      <formula2>61</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F398">
-      <formula1>0</formula1>
-      <formula2>60</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="D399">
-      <formula1>0</formula1>
-      <formula2>61</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F399">
-      <formula1>0</formula1>
-      <formula2>60</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="D400">
-      <formula1>0</formula1>
-      <formula2>61</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F400">
-      <formula1>0</formula1>
-      <formula2>60</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="D401">
-      <formula1>0</formula1>
-      <formula2>61</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F401">
-      <formula1>0</formula1>
-      <formula2>60</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="D402">
-      <formula1>0</formula1>
-      <formula2>61</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F402">
-      <formula1>0</formula1>
-      <formula2>60</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="D403">
-      <formula1>0</formula1>
-      <formula2>61</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F403">
-      <formula1>0</formula1>
-      <formula2>60</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G403">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="D404">
-      <formula1>0</formula1>
-      <formula2>61</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F404">
-      <formula1>0</formula1>
-      <formula2>60</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="D405">
-      <formula1>0</formula1>
-      <formula2>61</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F405">
-      <formula1>0</formula1>
-      <formula2>60</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="D406">
-      <formula1>0</formula1>
-      <formula2>61</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F406">
-      <formula1>0</formula1>
-      <formula2>60</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="D407">
-      <formula1>0</formula1>
-      <formula2>61</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F407">
-      <formula1>0</formula1>
-      <formula2>60</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G407">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="D408">
-      <formula1>0</formula1>
-      <formula2>61</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F408">
-      <formula1>0</formula1>
-      <formula2>60</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="D409">
-      <formula1>0</formula1>
-      <formula2>61</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F409">
-      <formula1>0</formula1>
-      <formula2>60</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="D410">
-      <formula1>0</formula1>
-      <formula2>61</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F410">
-      <formula1>0</formula1>
-      <formula2>60</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="D411">
-      <formula1>0</formula1>
-      <formula2>61</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F411">
-      <formula1>0</formula1>
-      <formula2>60</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="D412">
-      <formula1>0</formula1>
-      <formula2>61</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F412">
-      <formula1>0</formula1>
-      <formula2>60</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="D413">
-      <formula1>0</formula1>
-      <formula2>61</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F413">
-      <formula1>0</formula1>
-      <formula2>60</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G413">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="D414">
-      <formula1>0</formula1>
-      <formula2>61</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F414">
-      <formula1>0</formula1>
-      <formula2>60</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="D415">
-      <formula1>0</formula1>
-      <formula2>61</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F415">
-      <formula1>0</formula1>
-      <formula2>60</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="D416">
-      <formula1>0</formula1>
-      <formula2>61</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F416">
-      <formula1>0</formula1>
-      <formula2>60</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G416">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="D417">
-      <formula1>0</formula1>
-      <formula2>61</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F417">
-      <formula1>0</formula1>
-      <formula2>60</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="D418">
-      <formula1>0</formula1>
-      <formula2>61</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F418">
-      <formula1>0</formula1>
-      <formula2>60</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G418">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="D419">
-      <formula1>0</formula1>
-      <formula2>61</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F419">
-      <formula1>0</formula1>
-      <formula2>60</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="D420">
-      <formula1>0</formula1>
-      <formula2>61</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F420">
-      <formula1>0</formula1>
-      <formula2>60</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="D421">
-      <formula1>0</formula1>
-      <formula2>61</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F421">
-      <formula1>0</formula1>
-      <formula2>60</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G421">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="D422">
-      <formula1>0</formula1>
-      <formula2>61</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F422">
-      <formula1>0</formula1>
-      <formula2>60</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="D423">
-      <formula1>0</formula1>
-      <formula2>61</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F423">
-      <formula1>0</formula1>
-      <formula2>60</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="D424">
-      <formula1>0</formula1>
-      <formula2>61</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F424">
-      <formula1>0</formula1>
-      <formula2>60</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="D425">
-      <formula1>0</formula1>
-      <formula2>61</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F425">
-      <formula1>0</formula1>
-      <formula2>60</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G425">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="D426">
-      <formula1>0</formula1>
-      <formula2>61</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F426">
-      <formula1>0</formula1>
-      <formula2>60</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="D427">
-      <formula1>0</formula1>
-      <formula2>61</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F427">
-      <formula1>0</formula1>
-      <formula2>60</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="D428">
-      <formula1>0</formula1>
-      <formula2>61</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F428">
-      <formula1>0</formula1>
-      <formula2>60</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="D429">
-      <formula1>0</formula1>
-      <formula2>61</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F429">
-      <formula1>0</formula1>
-      <formula2>60</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G429">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="D430">
-      <formula1>0</formula1>
-      <formula2>61</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F430">
-      <formula1>0</formula1>
-      <formula2>60</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="D431">
-      <formula1>0</formula1>
-      <formula2>61</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F431">
-      <formula1>0</formula1>
-      <formula2>60</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="D432">
-      <formula1>0</formula1>
-      <formula2>61</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F432">
-      <formula1>0</formula1>
-      <formula2>60</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G432">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="D433">
-      <formula1>0</formula1>
-      <formula2>61</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F433">
-      <formula1>0</formula1>
-      <formula2>60</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="D434">
-      <formula1>0</formula1>
-      <formula2>61</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F434">
-      <formula1>0</formula1>
-      <formula2>60</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="D435">
-      <formula1>0</formula1>
-      <formula2>61</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F435">
-      <formula1>0</formula1>
-      <formula2>60</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="D436">
-      <formula1>0</formula1>
-      <formula2>61</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F436">
-      <formula1>0</formula1>
-      <formula2>60</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="D437">
-      <formula1>0</formula1>
-      <formula2>61</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F437">
-      <formula1>0</formula1>
-      <formula2>60</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="D438">
-      <formula1>0</formula1>
-      <formula2>61</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F438">
-      <formula1>0</formula1>
-      <formula2>60</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="D439">
-      <formula1>0</formula1>
-      <formula2>61</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F439">
-      <formula1>0</formula1>
-      <formula2>60</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G439">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="D440">
-      <formula1>0</formula1>
-      <formula2>61</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F440">
-      <formula1>0</formula1>
-      <formula2>60</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="D441">
-      <formula1>0</formula1>
-      <formula2>61</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F441">
-      <formula1>0</formula1>
-      <formula2>60</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="D442">
-      <formula1>0</formula1>
-      <formula2>61</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F442">
-      <formula1>0</formula1>
-      <formula2>60</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="D443">
-      <formula1>0</formula1>
-      <formula2>61</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F443">
-      <formula1>0</formula1>
-      <formula2>60</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G443">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="D444">
-      <formula1>0</formula1>
-      <formula2>61</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F444">
-      <formula1>0</formula1>
-      <formula2>60</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="D445">
-      <formula1>0</formula1>
-      <formula2>61</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F445">
-      <formula1>0</formula1>
-      <formula2>60</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G445">
-      <formula1>"Merkitsemättä,Osallistui,Ei osallistunut,Ei vaadita"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="D446">
-      <formula1>0</formula1>
-      <formula2>61</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F446">
-      <formula1>0</formula1>
-      <formula2>60</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="D447">
-      <formula1>0</formula1>
-      <formula2>61</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F447">
-      <formula1>0</formula1>
-      <formula2>60</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="D448">
-      <formula1>0</formula1>
-      <formula2>61</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F448">
-      <formula1>0</formula1>
-      <formula2>60</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="D449">
-      <formula1>0</formula1>
-      <formula2>61</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F449">
-      <formula1>0</formula1>
-      <formula2>60</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="D450">
-      <formula1>0</formula1>
-      <formula2>61</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" sqref="F450">
+    <dataValidation type="decimal" allowBlank="1" sqref="F8:F450">
       <formula1>0</formula1>
       <formula2>60</formula2>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
